--- a/output/1Y_P88_KFSDIV.xlsx
+++ b/output/1Y_P88_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D2" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.4908</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E3" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="F3" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="H3" s="1">
-        <v>10525.0063</v>
+        <v>10482.9036</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10525.0063</v>
+        <v>10482.9036</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0525</v>
+        <v>0.0483</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.6308</v>
       </c>
       <c r="C4" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D4" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E4" s="1">
-        <v>1956.4767</v>
+        <v>1952.5634</v>
       </c>
       <c r="F4" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="H4" s="1">
-        <v>20798.913</v>
+        <v>20715.7216</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20798.913</v>
+        <v>20715.7216</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2225</v>
+        <v>10.2429</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0133</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.3176</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E5" s="1">
-        <v>2897.1397</v>
+        <v>2891.3454</v>
       </c>
       <c r="F5" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="H5" s="1">
-        <v>29891.5289</v>
+        <v>29772.1841</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29891.5289</v>
+        <v>29772.1841</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.355</v>
+        <v>10.3758</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0295</v>
+        <v>-0.0307</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.2392</v>
       </c>
       <c r="C6" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D6" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E6" s="1">
-        <v>3866.3574</v>
+        <v>3858.6225</v>
       </c>
       <c r="F6" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="H6" s="1">
-        <v>39588.4064</v>
+        <v>39430.1054</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39588.4064</v>
+        <v>39430.1054</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.3457</v>
+        <v>10.3664</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0076</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D7" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4842.9962</v>
+        <v>4833.3098</v>
       </c>
       <c r="F7" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="H7" s="1">
-        <v>48327.7745</v>
+        <v>48134.9326</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>48327.7745</v>
+        <v>48134.9326</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3242</v>
+        <v>10.3449</v>
       </c>
       <c r="M7" s="1">
         <v>0.25</v>
       </c>
       <c r="N7" s="1">
-        <v>869.9304</v>
+        <v>868.1901</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9130.069600000001</v>
+        <v>-9131.8099</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0254</v>
+        <v>-0.0262</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.1873</v>
       </c>
       <c r="C8" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D8" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E8" s="1">
-        <v>5845.1006</v>
+        <v>5833.4098</v>
       </c>
       <c r="F8" s="1">
-        <v>995.8466</v>
+        <v>993.828</v>
       </c>
       <c r="H8" s="1">
-        <v>59545.7933</v>
+        <v>59307.6946</v>
       </c>
       <c r="I8" s="1">
-        <v>869.9304</v>
+        <v>868.1901</v>
       </c>
       <c r="J8" s="1">
-        <v>60415.7237</v>
+        <v>60175.8846</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>10.265</v>
+        <v>10.2856</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10144.9884</v>
+        <v>-10144.6983</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0358</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.4058</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E9" s="1">
-        <v>6840.9472</v>
+        <v>6827.2379</v>
       </c>
       <c r="F9" s="1">
-        <v>974.9358999999999</v>
+        <v>972.9539</v>
       </c>
       <c r="H9" s="1">
-        <v>71185.5287</v>
+        <v>70900.8653</v>
       </c>
       <c r="I9" s="1">
-        <v>724.942</v>
+        <v>723.4917</v>
       </c>
       <c r="J9" s="1">
-        <v>71910.47070000001</v>
+        <v>71624.357</v>
       </c>
       <c r="K9" s="1">
-        <v>70144.9884</v>
+        <v>70144.6983</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2537</v>
+        <v>10.2742</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10144.9884</v>
+        <v>-10144.6983</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0212</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>10.2688</v>
       </c>
       <c r="C10" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D10" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E10" s="1">
-        <v>7815.8832</v>
+        <v>7800.1918</v>
       </c>
       <c r="F10" s="1">
-        <v>987.9429</v>
+        <v>985.9367999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>80259.7411</v>
+        <v>79938.7052</v>
       </c>
       <c r="I10" s="1">
-        <v>579.9536000000001</v>
+        <v>578.7934</v>
       </c>
       <c r="J10" s="1">
-        <v>80839.69469999999</v>
+        <v>80517.49860000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80289.9768</v>
+        <v>80289.3967</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2727</v>
+        <v>10.2933</v>
       </c>
       <c r="M10" s="1">
         <v>0.1</v>
       </c>
       <c r="N10" s="1">
-        <v>615.6853</v>
+        <v>614.4514</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9529.3032</v>
+        <v>-9530.2469</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0131</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.4938</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E11" s="1">
-        <v>8803.8261</v>
+        <v>8786.1286</v>
       </c>
       <c r="F11" s="1">
-        <v>986.3173</v>
+        <v>984.2808</v>
       </c>
       <c r="H11" s="1">
-        <v>92385.5903</v>
+        <v>92015.36749999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1050.6505</v>
+        <v>1048.5464</v>
       </c>
       <c r="J11" s="1">
-        <v>93436.2408</v>
+        <v>93063.9139</v>
       </c>
       <c r="K11" s="1">
-        <v>90434.96520000001</v>
+        <v>90434.095</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2722</v>
+        <v>10.2928</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10350.2168</v>
+        <v>-10349.5155</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0286</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.5481</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E12" s="1">
-        <v>9790.143400000001</v>
+        <v>9770.4094</v>
       </c>
       <c r="F12" s="1">
-        <v>981.2399</v>
+        <v>979.2146</v>
       </c>
       <c r="H12" s="1">
-        <v>103267.4119</v>
+        <v>102853.0993</v>
       </c>
       <c r="I12" s="1">
-        <v>700.4336</v>
+        <v>699.0309999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>103967.8456</v>
+        <v>103552.1303</v>
       </c>
       <c r="K12" s="1">
-        <v>100785.182</v>
+        <v>100783.6105</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2946</v>
+        <v>10.3152</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10350.2168</v>
+        <v>-10349.5155</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0051</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>10.3262</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E13" s="1">
-        <v>10771.3834</v>
+        <v>10749.624</v>
       </c>
       <c r="F13" s="1">
-        <v>1002.3258</v>
+        <v>1000.2528</v>
       </c>
       <c r="H13" s="1">
-        <v>111227.4588</v>
+        <v>110780.2502</v>
       </c>
       <c r="I13" s="1">
-        <v>350.2168</v>
+        <v>349.5155</v>
       </c>
       <c r="J13" s="1">
-        <v>111577.6756</v>
+        <v>111129.7657</v>
       </c>
       <c r="K13" s="1">
-        <v>111135.3988</v>
+        <v>111133.126</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3177</v>
+        <v>10.3383</v>
       </c>
       <c r="M13" s="1">
         <v>0.25</v>
       </c>
       <c r="N13" s="1">
-        <v>2202.7823</v>
+        <v>2198.3421</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8147.4345</v>
+        <v>-8151.1734</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.021</v>
+        <v>-0.0213</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.462</v>
       </c>
       <c r="C14" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D14" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E14" s="1">
-        <v>11773.7092</v>
+        <v>11749.8768</v>
       </c>
       <c r="F14" s="1">
-        <v>-11773.7092</v>
+        <v>-11749.8768</v>
       </c>
       <c r="H14" s="1">
-        <v>123176.5453</v>
+        <v>122681.6385</v>
       </c>
       <c r="I14" s="1">
-        <v>2202.7823</v>
+        <v>2198.3421</v>
       </c>
       <c r="J14" s="1">
-        <v>125379.3276</v>
+        <v>124879.9806</v>
       </c>
       <c r="K14" s="1">
-        <v>121485.6157</v>
+        <v>121482.6415</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3184</v>
+        <v>10.3391</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123176.5453</v>
+        <v>122681.6385</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0313</v>
+        <v>0.031</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D2" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.4908</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E3" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="F3" s="1">
-        <v>903.1717</v>
+        <v>909.0046</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10525.0063</v>
+        <v>10482.9036</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10525.0063</v>
+        <v>10482.9036</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9474.993700000001</v>
+        <v>-9555.274600000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0525</v>
+        <v>0.0483</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.6308</v>
       </c>
       <c r="C4" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D4" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E4" s="1">
-        <v>1906.4323</v>
+        <v>1910.2562</v>
       </c>
       <c r="F4" s="1">
-        <v>915.5566</v>
+        <v>917.3982999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20266.9005</v>
+        <v>20266.8628</v>
       </c>
       <c r="I4" s="1">
-        <v>525.0063</v>
+        <v>444.7254</v>
       </c>
       <c r="J4" s="1">
-        <v>20791.9068</v>
+        <v>20711.5882</v>
       </c>
       <c r="K4" s="1">
-        <v>19474.9937</v>
+        <v>19555.2746</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2154</v>
+        <v>10.237</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9733.0995</v>
+        <v>-9772.2184</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.013</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.3176</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E5" s="1">
-        <v>2821.9889</v>
+        <v>2827.6545</v>
       </c>
       <c r="F5" s="1">
-        <v>1045.9707</v>
+        <v>1032.3271</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29116.1531</v>
+        <v>29116.358</v>
       </c>
       <c r="I5" s="1">
-        <v>791.9068</v>
+        <v>672.5071</v>
       </c>
       <c r="J5" s="1">
-        <v>29908.0599</v>
+        <v>29788.865</v>
       </c>
       <c r="K5" s="1">
-        <v>29208.0932</v>
+        <v>29327.4929</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3502</v>
+        <v>10.3717</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10791.9068</v>
+        <v>-10672.5071</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0287</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.2392</v>
       </c>
       <c r="C6" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D6" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E6" s="1">
-        <v>3867.9596</v>
+        <v>3859.9815</v>
       </c>
       <c r="F6" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39604.8118</v>
+        <v>39443.9934</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39604.8118</v>
+        <v>39443.9934</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.3414</v>
+        <v>10.3627</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0076</v>
+        <v>-0.008699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D7" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4844.5984</v>
+        <v>4834.6689</v>
       </c>
       <c r="F7" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48343.7629</v>
+        <v>48148.4677</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>48343.7629</v>
+        <v>48148.4677</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3208</v>
+        <v>10.342</v>
       </c>
       <c r="M7" s="1">
         <v>0.25</v>
       </c>
       <c r="N7" s="1">
-        <v>870.2909</v>
+        <v>868.4958</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9129.7091</v>
+        <v>-9131.504199999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0254</v>
+        <v>-0.0262</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.1873</v>
       </c>
       <c r="C8" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D8" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E8" s="1">
-        <v>5846.7028</v>
+        <v>5834.7689</v>
       </c>
       <c r="F8" s="1">
-        <v>1024.5977</v>
+        <v>1050.319</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>59562.1155</v>
+        <v>59321.5121</v>
       </c>
       <c r="I8" s="1">
-        <v>870.2909</v>
+        <v>868.4958</v>
       </c>
       <c r="J8" s="1">
-        <v>60432.4064</v>
+        <v>60190.008</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2622</v>
+        <v>10.2832</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10437.8845</v>
+        <v>-10721.3409</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0358</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.4058</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E9" s="1">
-        <v>6871.3005</v>
+        <v>6885.0879</v>
       </c>
       <c r="F9" s="1">
-        <v>816.7196</v>
+        <v>818.3305</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>71501.3792</v>
+        <v>71501.63770000001</v>
       </c>
       <c r="I9" s="1">
-        <v>432.4064</v>
+        <v>147.155</v>
       </c>
       <c r="J9" s="1">
-        <v>71933.7856</v>
+        <v>71648.7926</v>
       </c>
       <c r="K9" s="1">
-        <v>70437.8845</v>
+        <v>70721.3409</v>
       </c>
       <c r="L9" s="1">
-        <v>10.251</v>
+        <v>10.2717</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8498.620800000001</v>
+        <v>-8532.486699999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0213</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>10.2688</v>
       </c>
       <c r="C10" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D10" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E10" s="1">
-        <v>7688.0201</v>
+        <v>7703.4184</v>
       </c>
       <c r="F10" s="1">
-        <v>1076.3924</v>
+        <v>1078.5259</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>78946.7412</v>
+        <v>78946.9427</v>
       </c>
       <c r="I10" s="1">
-        <v>1933.7856</v>
+        <v>1614.6683</v>
       </c>
       <c r="J10" s="1">
-        <v>80880.52680000001</v>
+        <v>80561.611</v>
       </c>
       <c r="K10" s="1">
-        <v>78936.5053</v>
+        <v>79253.8276</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2675</v>
+        <v>10.2881</v>
       </c>
       <c r="M10" s="1">
         <v>0.1</v>
       </c>
       <c r="N10" s="1">
-        <v>618.417</v>
+        <v>619.6579</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10434.8417</v>
+        <v>-10477.7268</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0129</v>
+        <v>-0.0133</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.4938</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E11" s="1">
-        <v>8764.4126</v>
+        <v>8781.944299999999</v>
       </c>
       <c r="F11" s="1">
-        <v>765.0238000000001</v>
+        <v>766.6005</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>91971.99280000001</v>
+        <v>91971.5465</v>
       </c>
       <c r="I11" s="1">
-        <v>1498.9439</v>
+        <v>1136.9415</v>
       </c>
       <c r="J11" s="1">
-        <v>93470.93670000001</v>
+        <v>93108.488</v>
       </c>
       <c r="K11" s="1">
-        <v>89989.7641</v>
+        <v>90351.2123</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2676</v>
+        <v>10.2883</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8028.0072</v>
+        <v>-8060.6507</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0285</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.5481</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E12" s="1">
-        <v>9529.436400000001</v>
+        <v>9548.5448</v>
       </c>
       <c r="F12" s="1">
-        <v>898.982</v>
+        <v>900.776</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>100517.4484</v>
+        <v>100517.5311</v>
       </c>
       <c r="I12" s="1">
-        <v>3470.9367</v>
+        <v>3076.2907</v>
       </c>
       <c r="J12" s="1">
-        <v>103988.3851</v>
+        <v>103593.8219</v>
       </c>
       <c r="K12" s="1">
-        <v>98017.7712</v>
+        <v>98411.863</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2858</v>
+        <v>10.3065</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9482.551600000001</v>
+        <v>-9520.481599999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.005</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>10.3262</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E13" s="1">
-        <v>10428.4184</v>
+        <v>10449.3208</v>
       </c>
       <c r="F13" s="1">
-        <v>1192.507</v>
+        <v>1194.9468</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>107685.934</v>
+        <v>107685.4754</v>
       </c>
       <c r="I13" s="1">
-        <v>3988.3851</v>
+        <v>3555.8091</v>
       </c>
       <c r="J13" s="1">
-        <v>111674.3191</v>
+        <v>111241.2846</v>
       </c>
       <c r="K13" s="1">
-        <v>107500.3228</v>
+        <v>107932.3446</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3084</v>
+        <v>10.3291</v>
       </c>
       <c r="M13" s="1">
         <v>0.25</v>
       </c>
       <c r="N13" s="1">
-        <v>2144.1232</v>
+        <v>2148.4226</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10169.9428</v>
+        <v>-10215.5728</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0203</v>
+        <v>-0.0207</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.462</v>
       </c>
       <c r="C14" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D14" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E14" s="1">
-        <v>11620.9254</v>
+        <v>11644.2676</v>
       </c>
       <c r="F14" s="1">
-        <v>-11620.9254</v>
+        <v>-11644.2676</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121578.1217</v>
+        <v>121578.9627</v>
       </c>
       <c r="I14" s="1">
-        <v>3818.4423</v>
+        <v>3340.2363</v>
       </c>
       <c r="J14" s="1">
-        <v>125396.5639</v>
+        <v>124919.199</v>
       </c>
       <c r="K14" s="1">
-        <v>119814.3889</v>
+        <v>120296.34</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3102</v>
+        <v>10.3309</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121578.1217</v>
+        <v>121578.9627</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0306</v>
+        <v>0.0303</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D2" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.4908</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E3" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="F3" s="1">
-        <v>907.9378</v>
+        <v>913.7802</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10525.0063</v>
+        <v>10482.9036</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10525.0063</v>
+        <v>10482.9036</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9524.993700000001</v>
+        <v>-9605.4751</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0525</v>
+        <v>0.0483</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.6308</v>
       </c>
       <c r="C4" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D4" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E4" s="1">
-        <v>1911.1984</v>
+        <v>1915.0318</v>
       </c>
       <c r="F4" s="1">
-        <v>924.924</v>
+        <v>926.7845</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20317.5678</v>
+        <v>20317.5299</v>
       </c>
       <c r="I4" s="1">
-        <v>475.0063</v>
+        <v>394.5249</v>
       </c>
       <c r="J4" s="1">
-        <v>20792.574</v>
+        <v>20712.0548</v>
       </c>
       <c r="K4" s="1">
-        <v>19524.9937</v>
+        <v>19605.4751</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2161</v>
+        <v>10.2377</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9832.682199999999</v>
+        <v>-9872.2011</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.013</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.3176</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E5" s="1">
-        <v>2836.1224</v>
+        <v>2841.8163</v>
       </c>
       <c r="F5" s="1">
-        <v>1031.4728</v>
+        <v>1017.8002</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29261.9765</v>
+        <v>29262.1824</v>
       </c>
       <c r="I5" s="1">
-        <v>642.324</v>
+        <v>522.3238</v>
       </c>
       <c r="J5" s="1">
-        <v>29904.3005</v>
+        <v>29784.5062</v>
       </c>
       <c r="K5" s="1">
-        <v>29357.676</v>
+        <v>29477.6762</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3513</v>
+        <v>10.3728</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10642.324</v>
+        <v>-10522.3238</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0288</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.2392</v>
       </c>
       <c r="C6" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D6" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E6" s="1">
-        <v>3867.5952</v>
+        <v>3859.6165</v>
       </c>
       <c r="F6" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39601.081</v>
+        <v>39440.2631</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39601.081</v>
+        <v>39440.2631</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.3423</v>
+        <v>10.3637</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0076</v>
+        <v>-0.008699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D7" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4844.234</v>
+        <v>4834.3039</v>
       </c>
       <c r="F7" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>48340.1269</v>
+        <v>48144.8322</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>48340.1269</v>
+        <v>48144.8322</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3215</v>
+        <v>10.3428</v>
       </c>
       <c r="M7" s="1">
         <v>0.25</v>
       </c>
       <c r="N7" s="1">
-        <v>870.2089</v>
+        <v>868.4136999999999</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9129.7911</v>
+        <v>-9131.586300000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0254</v>
+        <v>-0.0262</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.1873</v>
       </c>
       <c r="C8" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D8" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E8" s="1">
-        <v>5846.3384</v>
+        <v>5834.4039</v>
       </c>
       <c r="F8" s="1">
-        <v>1067.0353</v>
+        <v>1064.727</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59558.4036</v>
+        <v>59317.8007</v>
       </c>
       <c r="I8" s="1">
-        <v>870.2089</v>
+        <v>868.4136999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>60428.6126</v>
+        <v>60186.2145</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2628</v>
+        <v>10.2838</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10870.2089</v>
+        <v>-10868.4137</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0358</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.4058</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E9" s="1">
-        <v>6913.3738</v>
+        <v>6899.1309</v>
       </c>
       <c r="F9" s="1">
-        <v>910.5406</v>
+        <v>940.4539</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71939.1847</v>
+        <v>71647.474</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>71939.1847</v>
+        <v>71647.474</v>
       </c>
       <c r="K9" s="1">
-        <v>70870.2089</v>
+        <v>70868.4137</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2512</v>
+        <v>10.2721</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9474.9031</v>
+        <v>-9805.8307</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0214</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>10.2688</v>
       </c>
       <c r="C10" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D10" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E10" s="1">
-        <v>7823.9143</v>
+        <v>7839.5848</v>
       </c>
       <c r="F10" s="1">
-        <v>1024.9588</v>
+        <v>990.7448000000001</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>80342.2116</v>
+        <v>80342.4166</v>
       </c>
       <c r="I10" s="1">
-        <v>525.0969</v>
+        <v>194.1693</v>
       </c>
       <c r="J10" s="1">
-        <v>80867.3085</v>
+        <v>80536.58590000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80345.11199999999</v>
+        <v>80674.2445</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2692</v>
+        <v>10.2906</v>
       </c>
       <c r="M10" s="1">
         <v>0.1</v>
       </c>
       <c r="N10" s="1">
-        <v>622.2036000000001</v>
+        <v>620.9218</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9902.8933</v>
+        <v>-9573.247499999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0131</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.4938</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E11" s="1">
-        <v>8848.873100000001</v>
+        <v>8830.3295</v>
       </c>
       <c r="F11" s="1">
-        <v>897.8596</v>
+        <v>935.9473</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92858.3049</v>
+        <v>92478.2752</v>
       </c>
       <c r="I11" s="1">
-        <v>622.2036000000001</v>
+        <v>620.9218</v>
       </c>
       <c r="J11" s="1">
-        <v>93480.5086</v>
+        <v>93099.197</v>
       </c>
       <c r="K11" s="1">
-        <v>90870.2089</v>
+        <v>90868.4137</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2691</v>
+        <v>10.2905</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9421.9591</v>
+        <v>-9841.2986</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0288</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.5481</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E12" s="1">
-        <v>9746.7327</v>
+        <v>9766.2768</v>
       </c>
       <c r="F12" s="1">
-        <v>946.3461</v>
+        <v>948.2349</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>102809.5117</v>
+        <v>102809.5963</v>
       </c>
       <c r="I12" s="1">
-        <v>1200.2445</v>
+        <v>779.6231</v>
       </c>
       <c r="J12" s="1">
-        <v>104009.7562</v>
+        <v>103589.2194</v>
       </c>
       <c r="K12" s="1">
-        <v>100292.1681</v>
+        <v>100709.7123</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2898</v>
+        <v>10.312</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9982.153700000001</v>
+        <v>-10022.0846</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0051</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>10.3262</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E13" s="1">
-        <v>10693.0789</v>
+        <v>10714.5118</v>
       </c>
       <c r="F13" s="1">
-        <v>1086.3716</v>
+        <v>1039.6871</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>110418.8712</v>
+        <v>110418.401</v>
       </c>
       <c r="I13" s="1">
-        <v>1218.0908</v>
+        <v>757.5385</v>
       </c>
       <c r="J13" s="1">
-        <v>111636.962</v>
+        <v>111175.9396</v>
       </c>
       <c r="K13" s="1">
-        <v>110274.3218</v>
+        <v>110731.797</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3127</v>
+        <v>10.3347</v>
       </c>
       <c r="M13" s="1">
         <v>0.25</v>
       </c>
       <c r="N13" s="1">
-        <v>2193.0149</v>
+        <v>2197.4123</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9025.0759</v>
+        <v>-8560.126200000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0208</v>
+        <v>-0.0212</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.462</v>
       </c>
       <c r="C14" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D14" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E14" s="1">
-        <v>11779.4505</v>
+        <v>11754.1989</v>
       </c>
       <c r="F14" s="1">
-        <v>-11779.4505</v>
+        <v>-11754.1989</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123236.6113</v>
+        <v>122726.7659</v>
       </c>
       <c r="I14" s="1">
-        <v>2193.0149</v>
+        <v>2197.4123</v>
       </c>
       <c r="J14" s="1">
-        <v>125429.6262</v>
+        <v>124924.1782</v>
       </c>
       <c r="K14" s="1">
-        <v>121492.4126</v>
+        <v>121489.3355</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3139</v>
+        <v>10.3358</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123236.6113</v>
+        <v>122726.7659</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0312</v>
+        <v>0.0309</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D2" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.4908</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E3" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="F3" s="1">
-        <v>912.7039</v>
+        <v>918.5559</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10525.0063</v>
+        <v>10482.9036</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10525.0063</v>
+        <v>10482.9036</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9574.993700000001</v>
+        <v>-9655.6757</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0525</v>
+        <v>0.0483</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.6308</v>
       </c>
       <c r="C4" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D4" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E4" s="1">
-        <v>1915.9645</v>
+        <v>1919.8074</v>
       </c>
       <c r="F4" s="1">
-        <v>934.3384</v>
+        <v>936.2178</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20368.235</v>
+        <v>20368.1971</v>
       </c>
       <c r="I4" s="1">
-        <v>425.0063</v>
+        <v>344.3243</v>
       </c>
       <c r="J4" s="1">
-        <v>20793.2413</v>
+        <v>20712.5214</v>
       </c>
       <c r="K4" s="1">
-        <v>19574.9937</v>
+        <v>19655.6757</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2168</v>
+        <v>10.2384</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9932.764999999999</v>
+        <v>-9972.685799999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0131</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.3176</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E5" s="1">
-        <v>2850.3029</v>
+        <v>2856.0253</v>
       </c>
       <c r="F5" s="1">
-        <v>1016.9265</v>
+        <v>1003.2248</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29408.2851</v>
+        <v>29408.4921</v>
       </c>
       <c r="I5" s="1">
-        <v>492.2413</v>
+        <v>371.6385</v>
       </c>
       <c r="J5" s="1">
-        <v>29900.5264</v>
+        <v>29780.1306</v>
       </c>
       <c r="K5" s="1">
-        <v>29507.7587</v>
+        <v>29628.3615</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3525</v>
+        <v>10.374</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10492.2413</v>
+        <v>-10371.6385</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.029</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.2392</v>
       </c>
       <c r="C6" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D6" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E6" s="1">
-        <v>3867.2294</v>
+        <v>3859.25</v>
       </c>
       <c r="F6" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39597.3356</v>
+        <v>39436.5182</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39597.3356</v>
+        <v>39436.5182</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.3433</v>
+        <v>10.3647</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0076</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D7" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4843.8682</v>
+        <v>4833.9374</v>
       </c>
       <c r="F7" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>48336.4767</v>
+        <v>48141.1824</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>48336.4767</v>
+        <v>48141.1824</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3223</v>
+        <v>10.3435</v>
       </c>
       <c r="M7" s="1">
         <v>0.25</v>
       </c>
       <c r="N7" s="1">
-        <v>870.1266000000001</v>
+        <v>868.3313000000001</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9129.8734</v>
+        <v>-9131.6687</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0254</v>
+        <v>-0.0262</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.1873</v>
       </c>
       <c r="C8" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D8" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E8" s="1">
-        <v>5845.9727</v>
+        <v>5834.0374</v>
       </c>
       <c r="F8" s="1">
-        <v>1067.0272</v>
+        <v>1064.7189</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>59554.6772</v>
+        <v>59314.0748</v>
       </c>
       <c r="I8" s="1">
-        <v>870.1266000000001</v>
+        <v>868.3313000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>60424.8039</v>
+        <v>60182.4061</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2635</v>
+        <v>10.2845</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10870.1266</v>
+        <v>-10868.3313</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0358</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.4058</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E9" s="1">
-        <v>6912.9999</v>
+        <v>6898.7563</v>
       </c>
       <c r="F9" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>71935.29429999999</v>
+        <v>71643.5843</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>71935.29429999999</v>
+        <v>71643.5843</v>
       </c>
       <c r="K9" s="1">
-        <v>70870.1266</v>
+        <v>70868.33130000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2517</v>
+        <v>10.2726</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0214</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>10.2688</v>
       </c>
       <c r="C10" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D10" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E10" s="1">
-        <v>7874.0024</v>
+        <v>7857.8325</v>
       </c>
       <c r="F10" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>80856.556</v>
+        <v>80529.42509999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80856.556</v>
+        <v>80529.42509999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80870.1266</v>
+        <v>80868.33130000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2705</v>
+        <v>10.2914</v>
       </c>
       <c r="M10" s="1">
         <v>0.1</v>
       </c>
       <c r="N10" s="1">
-        <v>622.17</v>
+        <v>620.8881</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9377.83</v>
+        <v>-9379.1119</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0132</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.4938</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E11" s="1">
-        <v>8847.825999999999</v>
+        <v>8829.7065</v>
       </c>
       <c r="F11" s="1">
-        <v>1012.2329</v>
+        <v>1010.0894</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>92847.31690000001</v>
+        <v>92471.75019999999</v>
       </c>
       <c r="I11" s="1">
-        <v>622.17</v>
+        <v>620.8881</v>
       </c>
       <c r="J11" s="1">
-        <v>93469.4868</v>
+        <v>93092.6382</v>
       </c>
       <c r="K11" s="1">
-        <v>90870.1266</v>
+        <v>90868.33130000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2703</v>
+        <v>10.2912</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10622.17</v>
+        <v>-10620.8881</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0288</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.5481</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E12" s="1">
-        <v>9860.058999999999</v>
+        <v>9839.795899999999</v>
       </c>
       <c r="F12" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>104004.8881</v>
+        <v>103583.5314</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>104004.8881</v>
+        <v>103583.5314</v>
       </c>
       <c r="K12" s="1">
-        <v>101492.2966</v>
+        <v>101489.2193</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2933</v>
+        <v>10.3142</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0052</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>10.3262</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E13" s="1">
-        <v>10808.097</v>
+        <v>10785.9413</v>
       </c>
       <c r="F13" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>111606.5713</v>
+        <v>111154.5181</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>111606.5713</v>
+        <v>111154.5181</v>
       </c>
       <c r="K13" s="1">
-        <v>111492.2966</v>
+        <v>111489.2193</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3156</v>
+        <v>10.3365</v>
       </c>
       <c r="M13" s="1">
         <v>0.25</v>
       </c>
       <c r="N13" s="1">
-        <v>2218.5133</v>
+        <v>2213.9541</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7781.4867</v>
+        <v>-7786.0459</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.021</v>
+        <v>-0.0214</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.462</v>
       </c>
       <c r="C14" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D14" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E14" s="1">
-        <v>11776.5075</v>
+        <v>11752.4144</v>
       </c>
       <c r="F14" s="1">
-        <v>-11776.5075</v>
+        <v>-11752.4144</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123205.821</v>
+        <v>122708.1335</v>
       </c>
       <c r="I14" s="1">
-        <v>2218.5133</v>
+        <v>2213.9541</v>
       </c>
       <c r="J14" s="1">
-        <v>125424.3343</v>
+        <v>124922.0876</v>
       </c>
       <c r="K14" s="1">
-        <v>121492.2966</v>
+        <v>121489.2193</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3165</v>
+        <v>10.3374</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123205.821</v>
+        <v>122708.1335</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0314</v>
+        <v>0.0311</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D2" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.4908</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E3" s="1">
-        <v>1003.2606</v>
+        <v>1001.2516</v>
       </c>
       <c r="F3" s="1">
-        <v>917.4699000000001</v>
+        <v>923.3315</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10525.0063</v>
+        <v>10482.9036</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10525.0063</v>
+        <v>10482.9036</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9624.993700000001</v>
+        <v>-9705.8763</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0525</v>
+        <v>0.0483</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.6308</v>
       </c>
       <c r="C4" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D4" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E4" s="1">
-        <v>1920.7305</v>
+        <v>1924.5831</v>
       </c>
       <c r="F4" s="1">
-        <v>943.7999</v>
+        <v>945.6983</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20418.9023</v>
+        <v>20418.8643</v>
       </c>
       <c r="I4" s="1">
-        <v>375.0063</v>
+        <v>294.1237</v>
       </c>
       <c r="J4" s="1">
-        <v>20793.9085</v>
+        <v>20712.988</v>
       </c>
       <c r="K4" s="1">
-        <v>19624.9937</v>
+        <v>19705.8763</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2175</v>
+        <v>10.239</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10033.3477</v>
+        <v>-10073.6725</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0131</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.3176</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E5" s="1">
-        <v>2864.5304</v>
+        <v>2870.2814</v>
       </c>
       <c r="F5" s="1">
-        <v>1002.3318</v>
+        <v>988.6008</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29555.0791</v>
+        <v>29555.2871</v>
       </c>
       <c r="I5" s="1">
-        <v>341.6585</v>
+        <v>220.4512</v>
       </c>
       <c r="J5" s="1">
-        <v>29896.7376</v>
+        <v>29775.7383</v>
       </c>
       <c r="K5" s="1">
-        <v>29658.3415</v>
+        <v>29779.5488</v>
       </c>
       <c r="L5" s="1">
-        <v>10.3536</v>
+        <v>10.3751</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10341.6585</v>
+        <v>-10220.4512</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0291</v>
+        <v>-0.0305</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.2392</v>
       </c>
       <c r="C6" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D6" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E6" s="1">
-        <v>3866.8622</v>
+        <v>3858.8821</v>
       </c>
       <c r="F6" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39593.5756</v>
+        <v>39432.7586</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39593.5756</v>
+        <v>39432.7586</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.3443</v>
+        <v>10.3657</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0076</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D7" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>4843.501</v>
+        <v>4833.5695</v>
       </c>
       <c r="F7" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>48332.8123</v>
+        <v>48137.5184</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>48332.8123</v>
+        <v>48137.5184</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3231</v>
+        <v>10.3443</v>
       </c>
       <c r="M7" s="1">
         <v>0.25</v>
       </c>
       <c r="N7" s="1">
-        <v>870.044</v>
+        <v>868.2485</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9129.956</v>
+        <v>-9131.7515</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0254</v>
+        <v>-0.0262</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.1873</v>
       </c>
       <c r="C8" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D8" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E8" s="1">
-        <v>5845.6054</v>
+        <v>5833.6695</v>
       </c>
       <c r="F8" s="1">
-        <v>1067.0191</v>
+        <v>1064.7108</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>59550.9363</v>
+        <v>59310.3343</v>
       </c>
       <c r="I8" s="1">
-        <v>870.044</v>
+        <v>868.2485</v>
       </c>
       <c r="J8" s="1">
-        <v>60420.9803</v>
+        <v>60178.5828</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2641</v>
+        <v>10.2851</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10870.044</v>
+        <v>-10868.2485</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0358</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.4058</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E9" s="1">
-        <v>6912.6246</v>
+        <v>6898.3803</v>
       </c>
       <c r="F9" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>71931.3887</v>
+        <v>71639.6793</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>71931.3887</v>
+        <v>71639.6793</v>
       </c>
       <c r="K9" s="1">
-        <v>70870.04399999999</v>
+        <v>70868.2485</v>
       </c>
       <c r="L9" s="1">
-        <v>10.2523</v>
+        <v>10.2732</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0214</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>10.2688</v>
       </c>
       <c r="C10" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D10" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E10" s="1">
-        <v>7873.6271</v>
+        <v>7857.4565</v>
       </c>
       <c r="F10" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>80852.7018</v>
+        <v>80525.5716</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80852.7018</v>
+        <v>80525.5716</v>
       </c>
       <c r="K10" s="1">
-        <v>80870.04399999999</v>
+        <v>80868.2485</v>
       </c>
       <c r="L10" s="1">
-        <v>10.271</v>
+        <v>10.2919</v>
       </c>
       <c r="M10" s="1">
         <v>0.1</v>
       </c>
       <c r="N10" s="1">
-        <v>622.1362</v>
+        <v>620.8542</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9377.863799999999</v>
+        <v>-9379.1458</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0132</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.4938</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E11" s="1">
-        <v>8847.450699999999</v>
+        <v>8829.3305</v>
       </c>
       <c r="F11" s="1">
-        <v>1012.2297</v>
+        <v>1010.0862</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>92843.37820000001</v>
+        <v>92467.8122</v>
       </c>
       <c r="I11" s="1">
-        <v>622.1362</v>
+        <v>620.8542</v>
       </c>
       <c r="J11" s="1">
-        <v>93465.5144</v>
+        <v>93088.66650000001</v>
       </c>
       <c r="K11" s="1">
-        <v>90870.04399999999</v>
+        <v>90868.2485</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2708</v>
+        <v>10.2916</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10622.1362</v>
+        <v>-10620.8542</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0288</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.5481</v>
       </c>
       <c r="C12" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D12" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E12" s="1">
-        <v>9859.680399999999</v>
+        <v>9839.4167</v>
       </c>
       <c r="F12" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>104000.8951</v>
+        <v>103579.5392</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>104000.8951</v>
+        <v>103579.5392</v>
       </c>
       <c r="K12" s="1">
-        <v>101492.1802</v>
+        <v>101489.1027</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2937</v>
+        <v>10.3145</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0052</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>10.3262</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E13" s="1">
-        <v>10807.7185</v>
+        <v>10785.5621</v>
       </c>
       <c r="F13" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>111602.6624</v>
+        <v>111150.6099</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>111602.6624</v>
+        <v>111150.6099</v>
       </c>
       <c r="K13" s="1">
-        <v>111492.1802</v>
+        <v>111489.1027</v>
       </c>
       <c r="L13" s="1">
-        <v>10.316</v>
+        <v>10.3369</v>
       </c>
       <c r="M13" s="1">
         <v>0.25</v>
       </c>
       <c r="N13" s="1">
-        <v>2218.4281</v>
+        <v>2213.8687</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7781.5719</v>
+        <v>-7786.1313</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.021</v>
+        <v>-0.0214</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.462</v>
       </c>
       <c r="C14" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D14" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E14" s="1">
-        <v>11776.1289</v>
+        <v>11752.0351</v>
       </c>
       <c r="F14" s="1">
-        <v>-11776.1289</v>
+        <v>-11752.0351</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123201.8607</v>
+        <v>122704.1739</v>
       </c>
       <c r="I14" s="1">
-        <v>2218.4281</v>
+        <v>2213.8687</v>
       </c>
       <c r="J14" s="1">
-        <v>125420.2888</v>
+        <v>124918.0426</v>
       </c>
       <c r="K14" s="1">
-        <v>121492.1802</v>
+        <v>121489.1027</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3168</v>
+        <v>10.3377</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123201.8607</v>
+        <v>122704.1739</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0314</v>
+        <v>0.0311</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3184</v>
+        <v>10.3391</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3102</v>
+        <v>10.3309</v>
       </c>
       <c r="E3" s="1">
-        <v>10.3139</v>
+        <v>10.3358</v>
       </c>
       <c r="F3" s="1">
-        <v>10.3165</v>
+        <v>10.3374</v>
       </c>
       <c r="G3" s="1">
-        <v>10.3168</v>
+        <v>10.3377</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0517</v>
       </c>
       <c r="C4" s="3">
-        <v>0.09130000000000001</v>
+        <v>0.0788</v>
       </c>
       <c r="D4" s="3">
-        <v>0.09180000000000001</v>
+        <v>0.0796</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0921</v>
+        <v>0.0795</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0919</v>
+        <v>0.0794</v>
       </c>
       <c r="G4" s="3">
-        <v>0.09180000000000001</v>
+        <v>0.07920000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0805</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0893</v>
+        <v>0.0878</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0885</v>
+        <v>0.0872</v>
       </c>
       <c r="E5" s="3">
-        <v>0.089</v>
+        <v>0.0877</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0892</v>
+        <v>0.0878</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0893</v>
+        <v>0.08790000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.3903</v>
       </c>
       <c r="C6" s="4">
-        <v>0.7952</v>
+        <v>0.6659</v>
       </c>
       <c r="D6" s="4">
-        <v>0.8078</v>
+        <v>0.6798</v>
       </c>
       <c r="E6" s="4">
-        <v>0.8058999999999999</v>
+        <v>0.6748</v>
       </c>
       <c r="F6" s="4">
-        <v>0.8024</v>
+        <v>0.6722</v>
       </c>
       <c r="G6" s="4">
-        <v>0.8006</v>
+        <v>0.6703</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.08450000000000001</v>
+        <v>0.0766</v>
       </c>
       <c r="D7" s="3">
-        <v>0.08599999999999999</v>
+        <v>0.078</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0854</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="F7" s="3">
-        <v>0.08500000000000001</v>
+        <v>0.077</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0849</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3688.3979</v>
+        <v>3680.9836</v>
       </c>
       <c r="D8" s="1">
-        <v>3632.8312</v>
+        <v>3636.5763</v>
       </c>
       <c r="E8" s="1">
-        <v>3685.4274</v>
+        <v>3686.7478</v>
       </c>
       <c r="F8" s="1">
-        <v>3710.8099</v>
+        <v>3703.1734</v>
       </c>
       <c r="G8" s="1">
-        <v>3710.6083</v>
+        <v>3702.9715</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P88_KFSDIV.xlsx
+++ b/output/1Y_P88_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>4230.1316</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0298</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0425</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0301</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
